--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H2">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I2">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J2">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>169.690907399947</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N2">
-        <v>169.690907399947</v>
+        <v>590.546372</v>
       </c>
       <c r="O2">
-        <v>0.5547945231140841</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P2">
-        <v>0.5547945231140841</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q2">
-        <v>899.5030385429762</v>
+        <v>2097.75450490539</v>
       </c>
       <c r="R2">
-        <v>899.5030385429762</v>
+        <v>18879.79054414851</v>
       </c>
       <c r="S2">
-        <v>0.001564440187158511</v>
+        <v>0.003085691519936083</v>
       </c>
       <c r="T2">
-        <v>0.001564440187158511</v>
+        <v>0.003129431280528533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H3">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I3">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J3">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>54.6034433841246</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N3">
-        <v>54.6034433841246</v>
+        <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.1785227729455335</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P3">
-        <v>0.1785227729455335</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q3">
-        <v>289.4436949598443</v>
+        <v>3.090057015091888</v>
       </c>
       <c r="R3">
-        <v>289.4436949598443</v>
+        <v>27.810513135827</v>
       </c>
       <c r="S3">
-        <v>0.0005034083587402971</v>
+        <v>4.545318675417683E-06</v>
       </c>
       <c r="T3">
-        <v>0.0005034083587402971</v>
+        <v>4.609748690341302E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H4">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I4">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J4">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.3133188485382</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N4">
-        <v>77.3133188485382</v>
+        <v>163.895484</v>
       </c>
       <c r="O4">
-        <v>0.2527713860345311</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P4">
-        <v>0.2527713860345311</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q4">
-        <v>409.8249357591908</v>
+        <v>582.1938906004306</v>
       </c>
       <c r="R4">
-        <v>409.8249357591908</v>
+        <v>5239.745015403875</v>
       </c>
       <c r="S4">
-        <v>0.0007127786919317901</v>
+        <v>0.0008563779732010949</v>
       </c>
       <c r="T4">
-        <v>0.0007127786919317901</v>
+        <v>0.000868517154088898</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.3008322739587</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H5">
-        <v>5.3008322739587</v>
+        <v>31.970039</v>
       </c>
       <c r="I5">
-        <v>0.002819855139119336</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J5">
-        <v>0.002819855139119336</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.25495216737674</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N5">
-        <v>4.25495216737674</v>
+        <v>232.883003</v>
       </c>
       <c r="O5">
-        <v>0.01391131790585118</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P5">
-        <v>0.01391131790585118</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q5">
-        <v>22.55478777298115</v>
+        <v>827.2531875941241</v>
       </c>
       <c r="R5">
-        <v>22.55478777298115</v>
+        <v>7445.278688347117</v>
       </c>
       <c r="S5">
-        <v>3.922790128873728E-05</v>
+        <v>0.001216847891319108</v>
       </c>
       <c r="T5">
-        <v>3.922790128873728E-05</v>
+        <v>0.001234096743027016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1817.26560160239</v>
+        <v>10.65667966666667</v>
       </c>
       <c r="H6">
-        <v>1817.26560160239</v>
+        <v>31.970039</v>
       </c>
       <c r="I6">
-        <v>0.9667209753075875</v>
+        <v>0.005231683521566388</v>
       </c>
       <c r="J6">
-        <v>0.9667209753075875</v>
+        <v>0.005282780159919854</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>169.690907399947</v>
+        <v>4.352083</v>
       </c>
       <c r="N6">
-        <v>169.690907399947</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O6">
-        <v>0.5547945231140841</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P6">
-        <v>0.5547945231140841</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q6">
-        <v>308373.4489226202</v>
+        <v>46.37875441374567</v>
       </c>
       <c r="R6">
-        <v>308373.4489226202</v>
+        <v>278.272526482474</v>
       </c>
       <c r="S6">
-        <v>0.5363315024801553</v>
+        <v>6.822081843468502E-05</v>
       </c>
       <c r="T6">
-        <v>0.5363315024801553</v>
+        <v>4.61252335850654E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H7">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I7">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J7">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.6034433841246</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N7">
-        <v>54.6034433841246</v>
+        <v>590.546372</v>
       </c>
       <c r="O7">
-        <v>0.1785227729455335</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P7">
-        <v>0.1785227729455335</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q7">
-        <v>99228.95939101324</v>
+        <v>386796.339567576</v>
       </c>
       <c r="R7">
-        <v>99228.95939101324</v>
+        <v>3481167.056108184</v>
       </c>
       <c r="S7">
-        <v>0.1725817091765212</v>
+        <v>0.5689579891998926</v>
       </c>
       <c r="T7">
-        <v>0.1725817091765212</v>
+        <v>0.5770229840556587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H8">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I8">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J8">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>77.3133188485382</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N8">
-        <v>77.3133188485382</v>
+        <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.2527713860345311</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P8">
-        <v>0.2527713860345311</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q8">
-        <v>140498.8348891662</v>
+        <v>569.7629249265075</v>
       </c>
       <c r="R8">
-        <v>140498.8348891662</v>
+        <v>5127.866324338567</v>
       </c>
       <c r="S8">
-        <v>0.2443594008371527</v>
+        <v>0.0008380926470225815</v>
       </c>
       <c r="T8">
-        <v>0.2443594008371527</v>
+        <v>0.0008499726329181971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1817.26560160239</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H9">
-        <v>1817.26560160239</v>
+        <v>5894.824219</v>
       </c>
       <c r="I9">
-        <v>0.9667209753075875</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J9">
-        <v>0.9667209753075875</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.25495216737674</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N9">
-        <v>4.25495216737674</v>
+        <v>163.895484</v>
       </c>
       <c r="O9">
-        <v>0.01391131790585118</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P9">
-        <v>0.01391131790585118</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q9">
-        <v>7732.378210237285</v>
+        <v>107348.3409408808</v>
       </c>
       <c r="R9">
-        <v>7732.378210237285</v>
+        <v>966135.0684679269</v>
       </c>
       <c r="S9">
-        <v>0.01344836281375836</v>
+        <v>0.1579040181040739</v>
       </c>
       <c r="T9">
-        <v>0.01344836281375836</v>
+        <v>0.1601423118232728</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.428296604429237</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H10">
-        <v>0.428296604429237</v>
+        <v>5894.824219</v>
       </c>
       <c r="I10">
-        <v>0.0002278386333784526</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J10">
-        <v>0.0002278386333784526</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.690907399947</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N10">
-        <v>169.690907399947</v>
+        <v>232.883003</v>
       </c>
       <c r="O10">
-        <v>0.5547945231140841</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P10">
-        <v>0.5547945231140841</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q10">
-        <v>72.67803944191338</v>
+        <v>152533.8184753167</v>
       </c>
       <c r="R10">
-        <v>72.67803944191338</v>
+        <v>1372804.36627785</v>
       </c>
       <c r="S10">
-        <v>0.0001264036259521632</v>
+        <v>0.224369586179953</v>
       </c>
       <c r="T10">
-        <v>0.0001264036259521632</v>
+        <v>0.2275500311208464</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.428296604429237</v>
+        <v>1964.941406333333</v>
       </c>
       <c r="H11">
-        <v>0.428296604429237</v>
+        <v>5894.824219</v>
       </c>
       <c r="I11">
-        <v>0.0002278386333784526</v>
+        <v>0.9646486427205408</v>
       </c>
       <c r="J11">
-        <v>0.0002278386333784526</v>
+        <v>0.9740701420585772</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.6034433841246</v>
+        <v>4.352083</v>
       </c>
       <c r="N11">
-        <v>54.6034433841246</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O11">
-        <v>0.1785227729455335</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P11">
-        <v>0.1785227729455335</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q11">
-        <v>23.38646939156465</v>
+        <v>8551.588090499394</v>
       </c>
       <c r="R11">
-        <v>23.38646939156465</v>
+        <v>51309.52854299636</v>
       </c>
       <c r="S11">
-        <v>4.067438461484215E-05</v>
+        <v>0.01257895658959887</v>
       </c>
       <c r="T11">
-        <v>4.067438461484215E-05</v>
+        <v>0.008504842425881174</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H12">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I12">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J12">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>77.3133188485382</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N12">
-        <v>77.3133188485382</v>
+        <v>590.546372</v>
       </c>
       <c r="O12">
-        <v>0.2527713860345311</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P12">
-        <v>0.2527713860345311</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q12">
-        <v>33.11303193998384</v>
+        <v>229.672932812752</v>
       </c>
       <c r="R12">
-        <v>33.11303193998384</v>
+        <v>2067.056395314768</v>
       </c>
       <c r="S12">
-        <v>5.759108715128485E-05</v>
+        <v>0.0003378373491664228</v>
       </c>
       <c r="T12">
-        <v>5.759108715128485E-05</v>
+        <v>0.0003426262027106791</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.428296604429237</v>
+        <v>1.166748</v>
       </c>
       <c r="H13">
-        <v>0.428296604429237</v>
+        <v>3.500244</v>
       </c>
       <c r="I13">
-        <v>0.0002278386333784526</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J13">
-        <v>0.0002278386333784526</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>4.25495216737674</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N13">
-        <v>4.25495216737674</v>
+        <v>0.869893</v>
       </c>
       <c r="O13">
-        <v>0.01391131790585118</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P13">
-        <v>0.01391131790585118</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q13">
-        <v>1.82238156529628</v>
+        <v>0.338315305988</v>
       </c>
       <c r="R13">
-        <v>1.82238156529628</v>
+        <v>3.044837753892</v>
       </c>
       <c r="S13">
-        <v>3.169535660162329E-06</v>
+        <v>4.976448236962956E-07</v>
       </c>
       <c r="T13">
-        <v>3.169535660162329E-06</v>
+        <v>5.046989525059699E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.289213345465911</v>
+        <v>1.166748</v>
       </c>
       <c r="H14">
-        <v>0.289213345465911</v>
+        <v>3.500244</v>
       </c>
       <c r="I14">
-        <v>0.0001538512626631165</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J14">
-        <v>0.0001538512626631165</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>169.690907399947</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N14">
-        <v>169.690907399947</v>
+        <v>163.895484</v>
       </c>
       <c r="O14">
-        <v>0.5547945231140841</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P14">
-        <v>0.5547945231140841</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q14">
-        <v>49.07687502428479</v>
+        <v>63.74157605534398</v>
       </c>
       <c r="R14">
-        <v>49.07687502428479</v>
+        <v>573.6741844980959</v>
       </c>
       <c r="S14">
-        <v>8.535583789968339E-05</v>
+        <v>9.376065704609536E-05</v>
       </c>
       <c r="T14">
-        <v>8.535583789968339E-05</v>
+        <v>9.508971689076578E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.289213345465911</v>
+        <v>1.166748</v>
       </c>
       <c r="H15">
-        <v>0.289213345465911</v>
+        <v>3.500244</v>
       </c>
       <c r="I15">
-        <v>0.0001538512626631165</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J15">
-        <v>0.0001538512626631165</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.6034433841246</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N15">
-        <v>54.6034433841246</v>
+        <v>232.883003</v>
       </c>
       <c r="O15">
-        <v>0.1785227729455335</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P15">
-        <v>0.1785227729455335</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q15">
-        <v>15.79204453508114</v>
+        <v>90.57192599474801</v>
       </c>
       <c r="R15">
-        <v>15.79204453508114</v>
+        <v>815.1473339527321</v>
       </c>
       <c r="S15">
-        <v>2.746595403179118E-05</v>
+        <v>0.000133226754290239</v>
       </c>
       <c r="T15">
-        <v>2.746595403179118E-05</v>
+        <v>0.0001351152471287212</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.289213345465911</v>
+        <v>1.166748</v>
       </c>
       <c r="H16">
-        <v>0.289213345465911</v>
+        <v>3.500244</v>
       </c>
       <c r="I16">
-        <v>0.0001538512626631165</v>
+        <v>0.000572791570766042</v>
       </c>
       <c r="J16">
-        <v>0.0001538512626631165</v>
+        <v>0.0005783858930568872</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>77.3133188485382</v>
+        <v>4.352083</v>
       </c>
       <c r="N16">
-        <v>77.3133188485382</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O16">
-        <v>0.2527713860345311</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P16">
-        <v>0.2527713860345311</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q16">
-        <v>22.36004359325841</v>
+        <v>5.077784136084</v>
       </c>
       <c r="R16">
-        <v>22.36004359325841</v>
+        <v>30.466704816504</v>
       </c>
       <c r="S16">
-        <v>3.888919690651866E-05</v>
+        <v>7.469165439588475E-06</v>
       </c>
       <c r="T16">
-        <v>3.888919690651866E-05</v>
+        <v>5.050027374215079E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.289213345465911</v>
+        <v>1.079543</v>
       </c>
       <c r="H17">
-        <v>0.289213345465911</v>
+        <v>3.238629</v>
       </c>
       <c r="I17">
-        <v>0.0001538512626631165</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J17">
-        <v>0.0001538512626631165</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.25495216737674</v>
+        <v>196.8487906666667</v>
       </c>
       <c r="N17">
-        <v>4.25495216737674</v>
+        <v>590.546372</v>
       </c>
       <c r="O17">
-        <v>0.01391131790585118</v>
+        <v>0.5898085209504824</v>
       </c>
       <c r="P17">
-        <v>0.01391131790585118</v>
+        <v>0.5923834015035012</v>
       </c>
       <c r="Q17">
-        <v>1.230588951124456</v>
+        <v>212.5067340226653</v>
       </c>
       <c r="R17">
-        <v>1.230588951124456</v>
+        <v>1912.560606203988</v>
       </c>
       <c r="S17">
-        <v>2.140273825123225E-06</v>
+        <v>0.0003125867328944789</v>
       </c>
       <c r="T17">
-        <v>2.140273825123225E-06</v>
+        <v>0.0003170176582714474</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>56.5403777927003</v>
+        <v>1.079543</v>
       </c>
       <c r="H18">
-        <v>56.5403777927003</v>
+        <v>3.238629</v>
       </c>
       <c r="I18">
-        <v>0.03007747965725144</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J18">
-        <v>0.03007747965725144</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>169.690907399947</v>
+        <v>0.2899643333333333</v>
       </c>
       <c r="N18">
-        <v>169.690907399947</v>
+        <v>0.869893</v>
       </c>
       <c r="O18">
-        <v>0.5547945231140841</v>
+        <v>0.0008688061226717315</v>
       </c>
       <c r="P18">
-        <v>0.5547945231140841</v>
+        <v>0.0008725990010553907</v>
       </c>
       <c r="Q18">
-        <v>9594.388012379126</v>
+        <v>0.3130289662996666</v>
       </c>
       <c r="R18">
-        <v>9594.388012379126</v>
+        <v>2.817260696697</v>
       </c>
       <c r="S18">
-        <v>0.01668682098291838</v>
+        <v>4.604498879857262E-07</v>
       </c>
       <c r="T18">
-        <v>0.01668682098291838</v>
+        <v>4.669767775776365E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>56.5403777927003</v>
+        <v>1.079543</v>
       </c>
       <c r="H19">
-        <v>56.5403777927003</v>
+        <v>3.238629</v>
       </c>
       <c r="I19">
-        <v>0.03007747965725144</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J19">
-        <v>0.03007747965725144</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.6034433841246</v>
+        <v>54.63182799999999</v>
       </c>
       <c r="N19">
-        <v>54.6034433841246</v>
+        <v>163.895484</v>
       </c>
       <c r="O19">
-        <v>0.1785227729455335</v>
+        <v>0.1636907067621498</v>
       </c>
       <c r="P19">
-        <v>0.1785227729455335</v>
+        <v>0.1644053183735123</v>
       </c>
       <c r="Q19">
-        <v>3087.299317720727</v>
+        <v>58.97740749460399</v>
       </c>
       <c r="R19">
-        <v>3087.299317720727</v>
+        <v>530.796667451436</v>
       </c>
       <c r="S19">
-        <v>0.005369515071625404</v>
+        <v>8.67528043669352E-05</v>
       </c>
       <c r="T19">
-        <v>0.005369515071625404</v>
+        <v>8.798252771070357E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.5403777927003</v>
+        <v>1.079543</v>
       </c>
       <c r="H20">
-        <v>56.5403777927003</v>
+        <v>3.238629</v>
       </c>
       <c r="I20">
-        <v>0.03007747965725144</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J20">
-        <v>0.03007747965725144</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>77.3133188485382</v>
+        <v>77.62766766666668</v>
       </c>
       <c r="N20">
-        <v>77.3133188485382</v>
+        <v>232.883003</v>
       </c>
       <c r="O20">
-        <v>0.2527713860345311</v>
+        <v>0.2325920301377057</v>
       </c>
       <c r="P20">
-        <v>0.2527713860345311</v>
+        <v>0.233607438823602</v>
       </c>
       <c r="Q20">
-        <v>4371.324256103847</v>
+        <v>83.80240523587635</v>
       </c>
       <c r="R20">
-        <v>4371.324256103847</v>
+        <v>754.2216471228871</v>
       </c>
       <c r="S20">
-        <v>0.007602726221388863</v>
+        <v>0.0001232691292436306</v>
       </c>
       <c r="T20">
-        <v>0.007602726221388863</v>
+        <v>0.0001250164724782739</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.5403777927003</v>
+        <v>1.079543</v>
       </c>
       <c r="H21">
-        <v>56.5403777927003</v>
+        <v>3.238629</v>
       </c>
       <c r="I21">
-        <v>0.03007747965725144</v>
+        <v>0.0005299800219751696</v>
       </c>
       <c r="J21">
-        <v>0.03007747965725144</v>
+        <v>0.0005351562138082184</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.25495216737674</v>
+        <v>4.352083</v>
       </c>
       <c r="N21">
-        <v>4.25495216737674</v>
+        <v>8.704166000000001</v>
       </c>
       <c r="O21">
-        <v>0.01391131790585118</v>
+        <v>0.0130399360269903</v>
       </c>
       <c r="P21">
-        <v>0.01391131790585118</v>
+        <v>0.008731242298328987</v>
       </c>
       <c r="Q21">
-        <v>240.5766030333498</v>
+        <v>4.698260738069</v>
       </c>
       <c r="R21">
-        <v>240.5766030333498</v>
+        <v>28.189564428414</v>
       </c>
       <c r="S21">
-        <v>0.0004184173813187966</v>
+        <v>6.910905582139125E-06</v>
       </c>
       <c r="T21">
-        <v>0.0004184173813187966</v>
+        <v>4.672578570215907E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H22">
+        <v>118.211979</v>
+      </c>
+      <c r="I22">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J22">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>196.8487906666667</v>
+      </c>
+      <c r="N22">
+        <v>590.546372</v>
+      </c>
+      <c r="O22">
+        <v>0.5898085209504824</v>
+      </c>
+      <c r="P22">
+        <v>0.5923834015035012</v>
+      </c>
+      <c r="Q22">
+        <v>11634.9425542317</v>
+      </c>
+      <c r="R22">
+        <v>69809.65532539019</v>
+      </c>
+      <c r="S22">
+        <v>0.01711441614859286</v>
+      </c>
+      <c r="T22">
+        <v>0.01157134230633194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H23">
+        <v>118.211979</v>
+      </c>
+      <c r="I23">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J23">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.2899643333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.869893</v>
+      </c>
+      <c r="O23">
+        <v>0.0008688061226717315</v>
+      </c>
+      <c r="P23">
+        <v>0.0008725990010553907</v>
+      </c>
+      <c r="Q23">
+        <v>17.1386288413745</v>
+      </c>
+      <c r="R23">
+        <v>102.831773048247</v>
+      </c>
+      <c r="S23">
+        <v>2.521006226205025E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.704494371676881E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H24">
+        <v>118.211979</v>
+      </c>
+      <c r="I24">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J24">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>54.63182799999999</v>
+      </c>
+      <c r="N24">
+        <v>163.895484</v>
+      </c>
+      <c r="O24">
+        <v>0.1636907067621498</v>
+      </c>
+      <c r="P24">
+        <v>0.1644053183735123</v>
+      </c>
+      <c r="Q24">
+        <v>3229.068252133806</v>
+      </c>
+      <c r="R24">
+        <v>19374.40951280283</v>
+      </c>
+      <c r="S24">
+        <v>0.004749797223461805</v>
+      </c>
+      <c r="T24">
+        <v>0.003211417151549193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H25">
+        <v>118.211979</v>
+      </c>
+      <c r="I25">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J25">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>77.62766766666668</v>
+      </c>
+      <c r="N25">
+        <v>232.883003</v>
+      </c>
+      <c r="O25">
+        <v>0.2325920301377057</v>
+      </c>
+      <c r="P25">
+        <v>0.233607438823602</v>
+      </c>
+      <c r="Q25">
+        <v>4588.260110015491</v>
+      </c>
+      <c r="R25">
+        <v>27529.56066009294</v>
+      </c>
+      <c r="S25">
+        <v>0.006749100182899778</v>
+      </c>
+      <c r="T25">
+        <v>0.004563179240121603</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>59.10598950000001</v>
+      </c>
+      <c r="H26">
+        <v>118.211979</v>
+      </c>
+      <c r="I26">
+        <v>0.0290169021651515</v>
+      </c>
+      <c r="J26">
+        <v>0.01953353567463783</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.352083</v>
+      </c>
+      <c r="N26">
+        <v>8.704166000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.0130399360269903</v>
+      </c>
+      <c r="P26">
+        <v>0.008731242298328987</v>
+      </c>
+      <c r="Q26">
+        <v>257.2341721011285</v>
+      </c>
+      <c r="R26">
+        <v>1028.936688404514</v>
+      </c>
+      <c r="S26">
+        <v>0.0003783785479350119</v>
+      </c>
+      <c r="T26">
+        <v>0.000170552032918316</v>
       </c>
     </row>
   </sheetData>
